--- a/biology/Botanique/Ekmanochloa/Ekmanochloa.xlsx
+++ b/biology/Botanique/Ekmanochloa/Ekmanochloa.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ekmanochloa est un genre de plantes monocotylédones de la famille des Poaceae, sous-famille des Bambusoideae, endémiques de Cuba, qui comprend deux espèces. Celles-ci sont classées comme en « danger critique d'extinction » (CR) dans la liste rouge de l'UICN[2]. Ce sont des plantes monoïques dont l'inflorescence est constituée de deux racèmes portant l'un des épillets staminés (mâles), l'autre des épillets pistillés (femelles).
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ekmanochloa est un genre de plantes monocotylédones de la famille des Poaceae, sous-famille des Bambusoideae, endémiques de Cuba, qui comprend deux espèces. Celles-ci sont classées comme en « danger critique d'extinction » (CR) dans la liste rouge de l'UICN. Ce sont des plantes monoïques dont l'inflorescence est constituée de deux racèmes portant l'un des épillets staminés (mâles), l'autre des épillets pistillés (femelles).
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon The Plant List            (10 décembre 2017)[3] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon The Plant List            (10 décembre 2017) :
 Ekmanochloa aristata Ekman
 Ekmanochloa subaphylla C.L.Hitchc.</t>
         </is>
